--- a/source_data_old/11_data.xlsx
+++ b/source_data_old/11_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step3_NewData\_Formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{19C9B552-3D46-42C6-B819-27F02A3C378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61F9EF0F-A7BC-47E4-AC4E-5FBCD7218116}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48ABA734-4885-4517-BD56-50AD835672FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1781,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BA1339"/>
+  <dimension ref="A1:Z1339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1807,7 +1807,7 @@
     <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1886,35 +1886,8 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-    </row>
-    <row r="2" spans="1:53">
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1982,7 +1955,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:26">
       <c r="A3">
         <v>11</v>
       </c>
@@ -2050,7 +2023,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:26">
       <c r="A4">
         <v>11</v>
       </c>
@@ -2118,7 +2091,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:26">
       <c r="A5">
         <v>11</v>
       </c>
@@ -2198,7 +2171,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:26">
       <c r="A6">
         <v>11</v>
       </c>
@@ -2278,7 +2251,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:26">
       <c r="A7">
         <v>11</v>
       </c>
@@ -2358,7 +2331,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:26">
       <c r="A8">
         <v>11</v>
       </c>
@@ -2438,7 +2411,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:26">
       <c r="A9">
         <v>11</v>
       </c>
@@ -2518,7 +2491,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:26">
       <c r="A10">
         <v>11</v>
       </c>
@@ -2598,7 +2571,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:26">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2666,7 +2639,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:26">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2746,7 +2719,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:26">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2826,7 +2799,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:26">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2906,7 +2879,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:26">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2974,7 +2947,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:26">
       <c r="A16">
         <v>11</v>
       </c>
@@ -108298,11 +108271,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X1339" xr:uid="{31711DC5-BF86-46BD-95E6-7752CE440312}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:X1153">
-      <sortCondition ref="K2"/>
-    </sortState>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y1339">
     <sortCondition ref="P2"/>
   </sortState>
@@ -108552,13 +108520,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9743E415-FD4A-461C-8139-4E814B9FE804}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9743E415-FD4A-461C-8139-4E814B9FE804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C47C4223-3588-40F1-BA84-9FF30EA40540}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C47C4223-3588-40F1-BA84-9FF30EA40540}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A409FFDA-C3C4-4FE0-B795-0FD25DA5442A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A409FFDA-C3C4-4FE0-B795-0FD25DA5442A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>